--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F722DBB4-EB7F-4FFE-87B7-2EF89F17F1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F813D-7F68-471E-9E2D-4F0FEA5F59DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{7712CC95-0C62-4995-8D91-EA07A2E2C3BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{7712CC95-0C62-4995-8D91-EA07A2E2C3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Anaconda" sheetId="2" r:id="rId2"/>
+    <sheet name="Django" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Git" sheetId="4" r:id="rId5"/>
+    <sheet name="Python Ubuntu" sheetId="5" r:id="rId6"/>
+    <sheet name="Django Query" sheetId="6" r:id="rId7"/>
+    <sheet name="Laravel" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Solr" sheetId="10" r:id="rId10"/>
+    <sheet name="Setup" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="303">
   <si>
     <t>Sr.No:</t>
   </si>
@@ -995,12 +995,210 @@
   <si>
     <t>JAVA SETUP IN UBUNTU-20</t>
   </si>
+  <si>
+    <t>virtualenv -p /usr/bin/python test_env</t>
+  </si>
+  <si>
+    <t>Create Python2 VirtualEnv(In ubuntu)</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Mysql Query</t>
+  </si>
+  <si>
+    <t>Create and insert data same as blog_about in one shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only create same structure like blog_about </t>
+  </si>
+  <si>
+    <t>Ubuntu Command</t>
+  </si>
+  <si>
+    <t>cd (space)</t>
+  </si>
+  <si>
+    <t>got to root directory</t>
+  </si>
+  <si>
+    <t>clr + l</t>
+  </si>
+  <si>
+    <t>Clear console/clear screen</t>
+  </si>
+  <si>
+    <t>clr + w</t>
+  </si>
+  <si>
+    <t>Close window</t>
+  </si>
+  <si>
+    <t>clr + alt+t</t>
+  </si>
+  <si>
+    <t>open terminal</t>
+  </si>
+  <si>
+    <t>clr + sft + t</t>
+  </si>
+  <si>
+    <t>open terminal in tab</t>
+  </si>
+  <si>
+    <t>alr + 1/2/3</t>
+  </si>
+  <si>
+    <t>switch between tab</t>
+  </si>
+  <si>
+    <t>clr + t</t>
+  </si>
+  <si>
+    <t>open folder in tab</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t>sudo(Super user do) allow administrative privileges</t>
+  </si>
+  <si>
+    <t>sudo apt-get upgrade &lt;package-name&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo apt-get install &lt;package-name&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">install package </t>
+  </si>
+  <si>
+    <t>upgrade oackage</t>
+  </si>
+  <si>
+    <t>sudo apt-get update</t>
+  </si>
+  <si>
+    <t>update install package</t>
+  </si>
+  <si>
+    <t>apt-get basically works on a database of available packages</t>
+  </si>
+  <si>
+    <t>sudo apt-get remove &lt;package_name&gt;</t>
+  </si>
+  <si>
+    <t>remove installed package</t>
+  </si>
+  <si>
+    <t>sudo apt-get purge &lt;package_name&gt;</t>
+  </si>
+  <si>
+    <t>apt-get purge command is used when you want to remove a software completely from your system with its configuration or data files so that no longer personalized settings will be available during reinstallation.</t>
+  </si>
+  <si>
+    <t>sudo apt-get autoremove</t>
+  </si>
+  <si>
+    <t>apt-get autoremove command is used to remove any unnecessary packages. Unnecessary means, whenever you install an application, the system will also install the software that this application depends on. It is common in Ubuntu that applications share the same libraries. When you remove the application the dependency will stay on your system.</t>
+  </si>
+  <si>
+    <t>cd/</t>
+  </si>
+  <si>
+    <t>Takes you to the root directory</t>
+  </si>
+  <si>
+    <t>cd-</t>
+  </si>
+  <si>
+    <t>Takes you to the previous directory.</t>
+  </si>
+  <si>
+    <t>rm &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>Remove file</t>
+  </si>
+  <si>
+    <t>rmdir &lt;folder name&gt;</t>
+  </si>
+  <si>
+    <t>Remove Empty Folder</t>
+  </si>
+  <si>
+    <t>rm -r &lt;folder name&gt;</t>
+  </si>
+  <si>
+    <t>Remove folder along with its content</t>
+  </si>
+  <si>
+    <t>hisory</t>
+  </si>
+  <si>
+    <t>lis out all previous run command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df </t>
+  </si>
+  <si>
+    <t>display file system</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>Display amount of free space</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>To change your password</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + W</t>
+  </si>
+  <si>
+    <t>Close the current tab</t>
+  </si>
+  <si>
+    <t>Ctrl + A</t>
+  </si>
+  <si>
+    <t>Move cursor to beginning of line</t>
+  </si>
+  <si>
+    <t>Ctrl + E</t>
+  </si>
+  <si>
+    <t>Move cursor to end of line</t>
+  </si>
+  <si>
+    <t>Ctrl + U</t>
+  </si>
+  <si>
+    <t>Clears the entire current line</t>
+  </si>
+  <si>
+    <t>Ctrl + K</t>
+  </si>
+  <si>
+    <t>Clears the command from the cursor right</t>
+  </si>
+  <si>
+    <t>Ctrl + W</t>
+  </si>
+  <si>
+    <t>Delete the word before the cursor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1378,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1234,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1313,6 +1533,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1330,6 +1556,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F97A92-27C7-4899-88B8-4593C678ABA4}">
   <dimension ref="C2:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1941,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD99B7-AF42-4201-AE2B-70680C915131}">
-  <dimension ref="E2:F23"/>
+  <dimension ref="E2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1954,14 +2196,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:6">
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="22" t="s">
@@ -2014,14 +2256,14 @@
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="33" t="s">
@@ -2052,10 +2294,88 @@
         <v>173</v>
       </c>
     </row>
+    <row r="26" spans="5:6">
+      <c r="E26" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E17:F18"/>
+    <mergeCell ref="E26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2067,7 +2387,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2077,52 +2397,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="21">
       <c r="A3" s="1" t="s">
@@ -2238,7 +2558,7 @@
   <dimension ref="D1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2249,35 +2569,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14">
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="4:14">
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="4:14">
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="5" spans="4:14">
       <c r="E5" s="2" t="s">
@@ -2289,15 +2609,15 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="4:14">
       <c r="E6">
@@ -2317,14 +2637,14 @@
       <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="4:14">
       <c r="E8">
@@ -2333,27 +2653,27 @@
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="4:14">
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="4:14" ht="21">
       <c r="E10">
@@ -2362,15 +2682,15 @@
       <c r="F10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="4:14">
       <c r="E11">
@@ -2379,15 +2699,15 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="4:14">
       <c r="E12">
@@ -2410,14 +2730,14 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="4:14">
       <c r="E14">
@@ -2573,26 +2893,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0712F2-D66D-4A43-A690-84B4129CBC7A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="B1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="2:18" ht="18">
+      <c r="B3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="10" spans="2:18">
+      <c r="R10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="R12" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2601,7 +2965,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2612,22 +2976,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2776,37 +3140,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCEAC12-9A4E-462F-A098-2842D10A7583}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="41.77734375" customWidth="1"/>
     <col min="4" max="4" width="57.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2935,6 +3299,14 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2963,24 +3335,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" s="2" t="s">
@@ -3090,14 +3462,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="5" spans="4:5" ht="23.4">
       <c r="D5" s="16" t="s">
@@ -3158,91 +3530,294 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFC830-CF69-484E-B1EA-609B57C22927}">
-  <dimension ref="D2:H16"/>
+  <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="35.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:8">
-      <c r="H2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8">
-      <c r="D4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8">
-      <c r="D5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8">
+    <row r="2" spans="2:7">
+      <c r="B2" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.6">
+      <c r="B5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>259</v>
+      </c>
       <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8">
+        <v>273</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>266</v>
+      </c>
       <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="D9" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>265</v>
+      </c>
       <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>281</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="57.6">
+      <c r="B12" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="86.4">
+      <c r="B13" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>272</v>
+      </c>
       <c r="D13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="D14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="D16" t="s">
-        <v>170</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="D16" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="D17" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="D18" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="D20" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="35"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="35"/>
+      <c r="C29" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F813D-7F68-471E-9E2D-4F0FEA5F59DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D4D52-0FEA-4B2C-98C0-24C166317743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{7712CC95-0C62-4995-8D91-EA07A2E2C3BF}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Python Ubuntu" sheetId="5" r:id="rId6"/>
     <sheet name="Django Query" sheetId="6" r:id="rId7"/>
     <sheet name="Laravel" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Ubuntu command" sheetId="9" r:id="rId9"/>
     <sheet name="Solr" sheetId="10" r:id="rId10"/>
     <sheet name="Setup" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -30,18 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="315">
   <si>
     <t>Sr.No:</t>
   </si>
@@ -1193,12 +1187,48 @@
   <si>
     <t>Delete the word before the cursor</t>
   </si>
+  <si>
+    <t>Install PGModeler in Ubuntu</t>
+  </si>
+  <si>
+    <t>Download file linux file(.run extension)</t>
+  </si>
+  <si>
+    <t>Download&gt; chmod +x file_name</t>
+  </si>
+  <si>
+    <t>set executing permission</t>
+  </si>
+  <si>
+    <t>run file</t>
+  </si>
+  <si>
+    <t>./file_name</t>
+  </si>
+  <si>
+    <t>free -m</t>
+  </si>
+  <si>
+    <t>check your current memory usage using this command</t>
+  </si>
+  <si>
+    <t>watch -n 1 free -m</t>
+  </si>
+  <si>
+    <t>sudo sysctl -w vm.drop_caches=3</t>
+  </si>
+  <si>
+    <t>We can free up unused memory</t>
+  </si>
+  <si>
+    <t>sudo apt-get clean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1400,6 +1430,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF484848"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1454,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1539,6 +1582,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,6 +1605,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1557,21 +1619,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD99B7-AF42-4201-AE2B-70680C915131}">
-  <dimension ref="E2:F40"/>
+  <dimension ref="E2:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2196,14 +2252,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:6">
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="22" t="s">
@@ -2256,14 +2312,14 @@
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="33" t="s">
@@ -2295,14 +2351,14 @@
       </c>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
@@ -2371,11 +2427,43 @@
         <v>170</v>
       </c>
     </row>
+    <row r="42" spans="5:6">
+      <c r="E42" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="44"/>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="E17:F18"/>
     <mergeCell ref="E26:F27"/>
+    <mergeCell ref="E42:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2397,52 +2485,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" spans="1:21" ht="21">
       <c r="A3" s="1" t="s">
@@ -2569,35 +2657,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14">
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="4:14">
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="4:14">
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="5" spans="4:14">
       <c r="E5" s="2" t="s">
@@ -2609,15 +2697,15 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="4:14">
       <c r="E6">
@@ -2637,14 +2725,14 @@
       <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="4:14">
       <c r="E8">
@@ -2653,27 +2741,27 @@
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="4:14">
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="4:14" ht="21">
       <c r="E10">
@@ -2682,15 +2770,15 @@
       <c r="F10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="4:14">
       <c r="E11">
@@ -2699,15 +2787,15 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="4:14">
       <c r="E12">
@@ -2730,14 +2818,14 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="4:14">
       <c r="E14">
@@ -2906,22 +2994,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="2:18" ht="18">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="36" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2976,22 +3064,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -3155,22 +3243,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -3335,24 +3423,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" s="2" t="s">
@@ -3462,14 +3550,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="5" spans="4:5" ht="23.4">
       <c r="D5" s="16" t="s">
@@ -3532,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFC830-CF69-484E-B1EA-609B57C22927}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3546,27 +3634,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="49"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="5" spans="2:7" ht="15.6">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="37" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3580,7 +3668,7 @@
       <c r="D6" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="38" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3658,7 +3746,7 @@
       <c r="B12" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="39" t="s">
         <v>270</v>
       </c>
       <c r="D12" t="s">
@@ -3672,7 +3760,7 @@
       <c r="B13" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="39" t="s">
         <v>272</v>
       </c>
       <c r="D13" t="s">
@@ -3690,7 +3778,21 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="15" spans="2:7">
+      <c r="B15" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="19.8">
+      <c r="B16" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
       <c r="D16" s="35" t="s">
         <v>244</v>
       </c>
@@ -3698,7 +3800,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" ht="19.8">
+      <c r="B17" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>313</v>
+      </c>
       <c r="D17" s="35" t="s">
         <v>246</v>
       </c>
@@ -3707,6 +3815,12 @@
       </c>
     </row>
     <row r="18" spans="2:5">
+      <c r="B18" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>313</v>
+      </c>
       <c r="D18" s="35" t="s">
         <v>248</v>
       </c>

--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D4D52-0FEA-4B2C-98C0-24C166317743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B247F7-F5A7-4D59-BEB9-A3AB974E03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="8" xr2:uid="{7712CC95-0C62-4995-8D91-EA07A2E2C3BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{7712CC95-0C62-4995-8D91-EA07A2E2C3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Ubuntu command" sheetId="9" r:id="rId9"/>
     <sheet name="Solr" sheetId="10" r:id="rId10"/>
     <sheet name="Setup" sheetId="11" r:id="rId11"/>
+    <sheet name="SQL Statetements" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="364">
   <si>
     <t>Sr.No:</t>
   </si>
@@ -1222,6 +1223,153 @@
   </si>
   <si>
     <t>sudo apt-get clean</t>
+  </si>
+  <si>
+    <t>SQL Statements</t>
+  </si>
+  <si>
+    <t>SELECT  @org_id as id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (SELECT name FROM demo.parent WHERE id = @org_id) as name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (SELECT @org_id := parent_id FROM demo.parent WHERE id = @org_id) AS parent_id</t>
+  </si>
+  <si>
+    <t>FROM (SELECT @org_id := 8) vars, demo.parent org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE @org_id !=0 </t>
+  </si>
+  <si>
+    <t>ORDER BY `id`  ASC</t>
+  </si>
+  <si>
+    <t>Paretnt child Tree(mysql)</t>
+  </si>
+  <si>
+    <t>Paretnt child Tree(postgres)</t>
+  </si>
+  <si>
+    <t>WITH RECURSIVE parents AS</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id              AS id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    value_name      As value_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0               AS number_of_ancestors,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ARRAY [id]      AS ancestry,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NULL :: BIGINT AS value2parent_value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    id              AS start_of_ancestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM in_use.classification_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    value2parent_value  IS NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    child.id                                    AS id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  child.value_name                    As name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    p.number_of_ancestors + 1                   AS ancestry_size,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    array_append(p.ancestry, child.id)          AS ancestry,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    child.value2parent_value                    AS value2parent_value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    coalesce(p.start_of_ancestry, child.value2parent_value) AS start_of_ancestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM in_use.classification_value child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INNER JOIN parents p ON p.id = child.value2parent_value</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  value_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  number_of_ancestors,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ancestry,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  value2parent_value,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  start_of_ancestry</t>
+  </si>
+  <si>
+    <t>FROM parents where id = 106470</t>
+  </si>
+  <si>
+    <t>DISK</t>
+  </si>
+  <si>
+    <t>Check disk space</t>
+  </si>
+  <si>
+    <t>df or df --help</t>
+  </si>
+  <si>
+    <t>Delete file from you git and your local directory</t>
+  </si>
+  <si>
+    <t>git rm file_name</t>
+  </si>
+  <si>
+    <t>it remove file from your local directory</t>
+  </si>
+  <si>
+    <t>git commit -m "file deleted"</t>
+  </si>
+  <si>
+    <t>commit changes</t>
+  </si>
+  <si>
+    <t>git push -u origin master_barnch</t>
+  </si>
+  <si>
+    <t>it will remove from git repo</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1598,6 +1746,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1620,13 +1778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2252,14 +2403,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:6">
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="5:6">
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="22" t="s">
@@ -2312,14 +2463,14 @@
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="33" t="s">
@@ -2351,14 +2502,14 @@
       </c>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" t="s">
@@ -2428,14 +2579,14 @@
       </c>
     </row>
     <row r="42" spans="5:6">
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="48"/>
     </row>
     <row r="43" spans="5:6">
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
@@ -2465,6 +2616,225 @@
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="E42:F43"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56872BAF-9601-4CEF-8F50-BBE93A94A220}">
+  <dimension ref="B4:C41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28.8">
+      <c r="C6" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="43.2">
+      <c r="C7" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28.8">
+      <c r="C8" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="28.8">
+      <c r="C18" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="28.8">
+      <c r="C27" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="28.8">
+      <c r="C28" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="28.8">
+      <c r="C29" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="43.2">
+      <c r="C30" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" ht="28.8">
+      <c r="C31" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" ht="28.8">
+      <c r="C32" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2485,52 +2855,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" ht="21">
       <c r="A3" s="1" t="s">
@@ -2657,35 +3027,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14">
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="4:14">
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="4:14">
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="5" spans="4:14">
       <c r="E5" s="2" t="s">
@@ -2697,15 +3067,15 @@
       <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
     </row>
     <row r="6" spans="4:14">
       <c r="E6">
@@ -2725,14 +3095,14 @@
       <c r="F7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="4:14">
       <c r="E8">
@@ -2741,27 +3111,27 @@
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" spans="4:14">
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
     </row>
     <row r="10" spans="4:14" ht="21">
       <c r="E10">
@@ -2770,15 +3140,15 @@
       <c r="F10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="4:14">
       <c r="E11">
@@ -2787,15 +3157,15 @@
       <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="4:14">
       <c r="E12">
@@ -2818,14 +3188,14 @@
       <c r="G13" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
     </row>
     <row r="14" spans="4:14">
       <c r="E14">
@@ -2994,16 +3364,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
     </row>
     <row r="3" spans="2:18" ht="18">
       <c r="B3" s="36" t="s">
@@ -3050,36 +3420,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A6EDA5-AC22-40F6-9863-779DD8B82D72}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
     <col min="3" max="3" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -3215,6 +3585,35 @@
       </c>
       <c r="C17" s="9" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3243,22 +3642,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -3423,24 +3822,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" s="2" t="s">
@@ -3550,14 +3949,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="4:5">
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="5" spans="4:5" ht="23.4">
       <c r="D5" s="16" t="s">
@@ -3620,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFC830-CF69-484E-B1EA-609B57C22927}">
   <dimension ref="B2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView topLeftCell="B15" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3634,15 +4033,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="5" spans="2:7" ht="15.6">
       <c r="B5" s="37" t="s">
@@ -3787,7 +4186,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="19.8">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="43" t="s">
         <v>311</v>
       </c>
       <c r="C16" t="s">
@@ -3801,10 +4200,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="19.8">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="44" t="s">
         <v>313</v>
       </c>
       <c r="D17" s="35" t="s">
@@ -3829,6 +4228,9 @@
       </c>
     </row>
     <row r="19" spans="2:5">
+      <c r="B19" s="45" t="s">
+        <v>354</v>
+      </c>
       <c r="D19" s="35" t="s">
         <v>250</v>
       </c>
@@ -3837,6 +4239,12 @@
       </c>
     </row>
     <row r="20" spans="2:5">
+      <c r="B20" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="D20" s="35" t="s">
         <v>252</v>
       </c>

--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Solr" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Setup" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="SQL Statetements" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Install Postgres" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="381">
   <si>
     <t xml:space="preserve">Sr.No:</t>
   </si>
@@ -1448,6 +1449,48 @@
   </si>
   <si>
     <t xml:space="preserve">FROM parents where id = 106470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo apt update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo apt install postgresql postgresql-contrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo systemctl start postgresql.service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change pwd:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo -u postgres psql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# \password postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter new password: &lt;new-password&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres=# \q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER USER postgres PASSWORD '&lt;new-password&gt;';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_lsclusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop postgres server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl stop postgresql.service</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1877,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1850,7 +1893,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1886,7 +1929,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1942,7 +1985,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2056,7 +2099,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39"/>
@@ -2107,7 +2150,7 @@
       <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71"/>
@@ -2369,7 +2412,7 @@
       <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="77.78"/>
@@ -2610,7 +2653,7 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.22"/>
@@ -2822,6 +2865,106 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.32"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2837,7 +2980,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.89"/>
@@ -3014,10 +3157,10 @@
   <dimension ref="D1:N29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="48.11"/>
@@ -3363,7 +3506,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.66"/>
@@ -3436,11 +3579,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.11"/>
@@ -3670,11 +3813,11 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.78"/>
   </cols>
   <sheetData>
@@ -3858,7 +4001,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.11"/>
@@ -3994,7 +4137,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="66.78"/>
@@ -4084,7 +4227,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.55"/>

--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Networking" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Anaconda" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Django" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet8" sheetId="4" state="visible" r:id="rId5"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="387">
   <si>
     <t xml:space="preserve">Sr.No:</t>
   </si>
@@ -47,6 +47,25 @@
   </si>
   <si>
     <t xml:space="preserve">Pip freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netstat -tulpn | grep --color :80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check port 80 s running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatis nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo fuser 80/tcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo lsof -i tcp:80
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running process is using a port.</t>
   </si>
   <si>
     <t xml:space="preserve">Anaconda command</t>
@@ -1856,6 +1875,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1877,7 +1900,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1888,12 +1911,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1929,7 +1948,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1985,7 +2004,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2093,10 +2112,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2126,6 +2145,32 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2165,229 +2210,229 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="37" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="37" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="37" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="37" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="37" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="40" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="42" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="43" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="43" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="39" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="80.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="39" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="39" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="43" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="43" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="43" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="43" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="45" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="45" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="39" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2419,18 +2464,18 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -2438,59 +2483,59 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -2498,28 +2543,28 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="29" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F26" s="29"/>
     </row>
@@ -2529,100 +2574,100 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2694,7 @@
   </sheetPr>
   <dimension ref="B4:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2661,201 +2706,201 @@
   <sheetData>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="14" t="s">
-        <v>331</v>
+      <c r="C6" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="14" t="s">
-        <v>332</v>
+      <c r="C7" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="14" t="s">
-        <v>333</v>
+      <c r="C8" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="14" t="s">
-        <v>334</v>
+      <c r="C9" s="6" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="14" t="s">
-        <v>335</v>
+      <c r="C10" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="14" t="s">
-        <v>338</v>
+      <c r="C12" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="14" t="s">
-        <v>339</v>
+      <c r="C13" s="6" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="14" t="s">
-        <v>340</v>
+      <c r="C14" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="14" t="s">
-        <v>341</v>
+      <c r="C15" s="6" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14" t="s">
-        <v>342</v>
+      <c r="C16" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="14" t="s">
-        <v>343</v>
+      <c r="C17" s="6" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="14" t="s">
-        <v>344</v>
+      <c r="C18" s="6" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="14" t="s">
-        <v>350</v>
+      <c r="C25" s="6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="14" t="s">
-        <v>351</v>
+      <c r="C26" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="14" t="s">
-        <v>352</v>
+      <c r="C27" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="14" t="s">
-        <v>353</v>
+      <c r="C28" s="6" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="14" t="s">
-        <v>354</v>
+      <c r="C29" s="6" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="14" t="s">
-        <v>355</v>
+      <c r="C30" s="6" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14" t="s">
-        <v>356</v>
+      <c r="C31" s="6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="14" t="s">
-        <v>357</v>
+      <c r="C32" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="14" t="s">
-        <v>358</v>
+      <c r="C33" s="6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14" t="s">
-        <v>359</v>
+      <c r="C34" s="6" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="14" t="s">
-        <v>360</v>
+      <c r="C35" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="14" t="s">
-        <v>361</v>
+      <c r="C36" s="6" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="14" t="s">
-        <v>362</v>
+      <c r="C37" s="6" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="14" t="s">
-        <v>363</v>
+      <c r="C38" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="14" t="s">
-        <v>364</v>
+      <c r="C39" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="14" t="s">
-        <v>365</v>
+      <c r="C40" s="6" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="14" t="s">
-        <v>366</v>
+      <c r="C41" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2876,11 +2921,11 @@
   </sheetPr>
   <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.32"/>
@@ -2888,74 +2933,74 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2987,61 +3032,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3050,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,10 +3106,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3072,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,10 +3128,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,10 +3139,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,10 +3150,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,23 +3161,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3168,155 +3213,155 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="F7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,19 +3369,19 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="n">
@@ -3349,10 +3394,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,10 +3405,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,90 +3432,90 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="12" t="s">
-        <v>56</v>
+      <c r="F22" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>59</v>
+      <c r="F23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="11" t="s">
-        <v>50</v>
+      <c r="F28" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +3559,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -3526,36 +3571,36 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R12" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3637,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3610,13 +3655,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3624,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3657,10 +3702,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,10 +3713,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +3724,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,102 +3735,102 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3868,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3841,16 +3886,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,19 +3903,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3889,10 +3934,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,10 +3945,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,69 +3956,69 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="22" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4011,7 +4056,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -4031,16 +4076,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,61 +4093,61 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>156</v>
+      <c r="D10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4155,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="26"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4146,7 +4191,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E2" s="27"/>
     </row>
@@ -4159,47 +4204,47 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4283,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C2" s="29"/>
       <c r="G2" s="1"/>
@@ -4252,288 +4297,288 @@
         <v>2</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="33" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Common Command.xlsx
+++ b/Common Command.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Networking" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="391">
   <si>
     <t xml:space="preserve">Sr.No:</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">running process is using a port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netstat -nlp | grep 5432</t>
   </si>
   <si>
     <t xml:space="preserve">Anaconda command</t>
@@ -1511,6 +1514,15 @@
   <si>
     <t xml:space="preserve">systemctl stop postgresql.service</t>
   </si>
+  <si>
+    <t xml:space="preserve">sudo service postgresql status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of database</t>
+  </si>
 </sst>
 </file>
 
@@ -1519,7 +1531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1774,6 +1786,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1850,7 +1868,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2032,6 +2050,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2112,10 +2134,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2171,6 +2193,14 @@
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2210,229 +2240,229 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="80.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2495,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -2475,7 +2505,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
@@ -2483,49 +2513,49 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F17" s="11"/>
     </row>
@@ -2535,7 +2565,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -2543,28 +2573,28 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F26" s="29"/>
     </row>
@@ -2574,74 +2604,74 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -2651,23 +2681,23 @@
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2706,201 +2736,201 @@
   <sheetData>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2919,88 +2949,106 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.32"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3081,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3081,10 +3129,10 @@
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
@@ -3095,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,10 +3165,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,10 +3176,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,10 +3187,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,23 +3209,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3262,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -3234,7 +3282,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3245,16 +3293,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -3268,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,10 +3327,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -3295,10 +3343,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -3308,10 +3356,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3324,10 +3372,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -3341,10 +3389,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3358,10 +3406,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,13 +3417,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -3394,10 +3442,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,10 +3453,10 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,90 +3480,90 @@
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3607,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -3571,36 +3619,36 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="R12" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3685,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3655,13 +3703,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,10 +3728,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,10 +3750,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,10 +3761,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,10 +3772,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,102 +3783,102 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3916,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -3886,16 +3934,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,19 +3951,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,10 +3971,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,10 +3982,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,10 +3993,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,69 +4004,69 @@
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4056,7 +4104,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -4076,16 +4124,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,61 +4141,61 @@
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,7 +4239,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E2" s="27"/>
     </row>
@@ -4204,47 +4252,47 @@
         <v>2</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4331,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="29"/>
       <c r="G2" s="1"/>
@@ -4297,288 +4345,288 @@
         <v>2</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
